--- a/biology/Botanique/Tecticornia/Tecticornia.xlsx
+++ b/biology/Botanique/Tecticornia/Tecticornia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tecticornia est un genre de plantes herbacées de la famille des Chenopodiaceae, ou des Amaranthaceae selon la classification phylogénétique.
 C'est un genre de plantes succulentes, tolérantes au sel, endémiques en Australie. En 2007, les genres Halosarcia, Pachycornia, Sclerostegia et Tegicornia ont été intégrés dans le genre.
@@ -512,7 +524,9 @@
           <t>Principales espèces[2],[3]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tecticornia arborea Paul G.Wilson
 Tecticornia arbuscula (R.Br.) K.A.Sheph. &amp; Paul G.Wilson
